--- a/comment_Analysis/github_analysis.xlsx
+++ b/comment_Analysis/github_analysis.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloehebert/Documents/csc400/issuecomments_analysis/comment_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\issuecomments_analysis\comment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FDF19-E582-42AD-8231-421DB0A655E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="460" windowWidth="24560" windowHeight="14320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4170" yWindow="1515" windowWidth="18870" windowHeight="17370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="AWS" sheetId="2" r:id="rId2"/>
+    <sheet name="Google" sheetId="3" r:id="rId2"/>
+    <sheet name="Microsoft" sheetId="4" r:id="rId3"/>
+    <sheet name="IBM" sheetId="5" r:id="rId4"/>
+    <sheet name="AWS" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Positive</t>
   </si>
@@ -62,11 +72,32 @@
   <si>
     <t>Macro avg</t>
   </si>
+  <si>
+    <t>GoogleMismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mismatch</t>
+  </si>
+  <si>
+    <t>True Positive</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>BaseLine</t>
+  </si>
+  <si>
+    <t>Negitive</t>
+  </si>
+  <si>
+    <t>mismatch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,14 +135,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -119,12 +149,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -167,7 +200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -241,17 +273,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2013.0</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2087.0</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3022.0</c:v>
+                  <c:v>3022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BAE-4AC7-A279-B296D9CD0B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -419,7 +456,918 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Google Breakdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Google!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Google!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0212-401D-BB27-14663C7F8E79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="320172303"/>
+        <c:axId val="324508735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="320172303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324508735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324508735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320172303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Microsoft</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Microsoft!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Microsoft!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3525-435D-A7ED-1AC6C5EE8972}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="591185807"/>
+        <c:axId val="327137823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="591185807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327137823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327137823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591185807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IBM Breakdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IBM!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IBM!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF17-4902-B79E-5E5B8DFCB36A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="418417279"/>
+        <c:axId val="688932991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418417279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688932991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688932991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418417279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -458,7 +1406,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -532,17 +1479,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1557.0</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2611.0</c:v>
+                  <c:v>2611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2821.0</c:v>
+                  <c:v>2821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BAC-42C8-8E1B-7D172D3AEBF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -789,6 +1741,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1293,6 +2365,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1812,7 +4393,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1834,6 +4421,129 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87581C58-E0DA-412B-99D5-32FB7EE92714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE751B71-626E-400F-8511-480EB9AC9405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B23FE7D-F5B2-4327-A2CE-D83EAFB0E493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1847,8 +4557,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331DD62B-BB65-4BFB-974E-B72C87E7B7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2127,16 +4845,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -2165,46 +4883,653 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CD297-8E43-4141-90A2-FB97FFE10A3B}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1620</v>
+      </c>
+      <c r="B2">
+        <v>1969</v>
+      </c>
+      <c r="C2">
+        <v>3533</v>
+      </c>
+      <c r="D2">
+        <v>3590</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2">
+        <v>2013</v>
+      </c>
+      <c r="I2">
+        <v>2087</v>
+      </c>
+      <c r="J2">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>A2-C7</f>
+        <v>969</v>
+      </c>
+      <c r="C7">
+        <v>651</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/(B7+C7)</f>
+        <v>0.5981481481481481</v>
+      </c>
+      <c r="E7" s="1">
+        <f>B7/H2</f>
+        <v>0.481371087928465</v>
+      </c>
+      <c r="F7" s="1">
+        <f>2*D7*E7/(D7+E7)</f>
+        <v>0.53344343517753923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>C2-C8</f>
+        <v>1435</v>
+      </c>
+      <c r="C8">
+        <v>2098</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8/(B8+C8)</f>
+        <v>0.40617039343334277</v>
+      </c>
+      <c r="E8" s="1">
+        <f>B8/I2</f>
+        <v>0.68758984187829419</v>
+      </c>
+      <c r="F8" s="1">
+        <f>2*D8*E8/(D8+E8)</f>
+        <v>0.51067615658362986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>B2-C9</f>
+        <v>1128</v>
+      </c>
+      <c r="C9">
+        <v>841</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9/(B9+C9)</f>
+        <v>0.57287963433214828</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B9/J2</f>
+        <v>0.37326273990734615</v>
+      </c>
+      <c r="F9" s="1">
+        <f>2*D9*E9/(D9+E9)</f>
+        <v>0.45201362452414345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(B7+B8+B9)/(B7+B8+B9+C7+C8+C9)</f>
+        <v>0.49592811008143778</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.50288500000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.50288500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(D7+D8+D9)/3</f>
+        <v>0.5257327253045464</v>
+      </c>
+      <c r="E11" s="1">
+        <f>(E7+E8+E9)/3</f>
+        <v>0.51407455657136847</v>
+      </c>
+      <c r="F11" s="1">
+        <f>(F7+F8+F9)/3</f>
+        <v>0.49871107209510424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E200D2-0165-4097-AF74-0C45E108232F}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1884</v>
+      </c>
+      <c r="B2">
+        <v>2385</v>
+      </c>
+      <c r="C2">
+        <v>2853</v>
+      </c>
+      <c r="D2">
+        <v>2890</v>
+      </c>
+      <c r="L2">
+        <v>2013</v>
+      </c>
+      <c r="M2">
+        <v>2087</v>
+      </c>
+      <c r="N2">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <f>A2-C8</f>
+        <v>1200</v>
+      </c>
+      <c r="C8">
+        <v>684</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8/(B8+C8)</f>
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="E8" s="1">
+        <f>B8/L2</f>
+        <v>0.5961251862891207</v>
+      </c>
+      <c r="F8" s="1">
+        <f>2*D8*E8/(D8+E8)</f>
+        <v>0.61585835257890686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f>C2-C9</f>
+        <v>1585</v>
+      </c>
+      <c r="C9">
+        <v>1268</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9/(B9+C9)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B9/M2</f>
+        <v>0.75946334451365594</v>
+      </c>
+      <c r="F9" s="1">
+        <f>2*D9*E9/(D9+E9)</f>
+        <v>0.64170040485829971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B2-C10</f>
+        <v>1447</v>
+      </c>
+      <c r="C10">
+        <v>938</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10/(B10+C10)</f>
+        <v>0.60670859538784072</v>
+      </c>
+      <c r="E10" s="1">
+        <f>B10/N2</f>
+        <v>0.47882197220383854</v>
+      </c>
+      <c r="F10" s="1">
+        <f>2*D10*E10/(D10+E10)</f>
+        <v>0.535232106528574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f>(B8+B9+B10)/(B8+B9+B10+C8+C9+C10)</f>
+        <v>0.59421510811569789</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.74856321839080464</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.74856321839080464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>(D8+D9+D10)/3</f>
+        <v>0.59973560870087728</v>
+      </c>
+      <c r="E12" s="1">
+        <f>(E8+E9+E10)/3</f>
+        <v>0.61147016766887174</v>
+      </c>
+      <c r="F12" s="1">
+        <f>(F8+F9+F10)/3</f>
+        <v>0.5975969546552603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A47B7-3617-43FA-A90D-53A5A14DB27E}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2175</v>
+      </c>
+      <c r="B2">
+        <v>1191</v>
+      </c>
+      <c r="C2">
+        <v>3294</v>
+      </c>
+      <c r="D2">
+        <v>2877</v>
+      </c>
+      <c r="F2">
+        <v>2013</v>
+      </c>
+      <c r="G2">
+        <v>2087</v>
+      </c>
+      <c r="H2">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <f>A2-C9</f>
+        <v>1255</v>
+      </c>
+      <c r="C9">
+        <v>920</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9/(B9+C9)</f>
+        <v>0.57701149425287357</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B9/F2</f>
+        <v>0.62344759066070543</v>
+      </c>
+      <c r="F9" s="1">
+        <f>2*D9*E9/(D9+E9)</f>
+        <v>0.59933142311365806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f>C2-C10</f>
+        <v>1668</v>
+      </c>
+      <c r="C10">
+        <v>1626</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10/(B10+C10)</f>
+        <v>0.50637522768670307</v>
+      </c>
+      <c r="E10" s="1">
+        <f>B10/G2</f>
+        <v>0.79923334930522283</v>
+      </c>
+      <c r="F10" s="1">
+        <f>2*D10*E10/(D10+E10)</f>
+        <v>0.61995911540605841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B2-C11</f>
+        <v>860</v>
+      </c>
+      <c r="C11">
+        <v>331</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11/(B11+C11)</f>
+        <v>0.72208228379513018</v>
+      </c>
+      <c r="E11" s="1">
+        <f>B11/H2</f>
+        <v>0.28457974851091994</v>
+      </c>
+      <c r="F11" s="1">
+        <f>2*D11*E11/(D11+E11)</f>
+        <v>0.40826014716354142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>(B9+B10+B11)/(B9+B10+B11+C9+C10+C11)</f>
+        <v>0.56801801801801799</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.56801800000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.56801800000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>(D9+D10+D11)/3</f>
+        <v>0.6018230019115689</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(E9+E10+E11)/3</f>
+        <v>0.56908689615894936</v>
+      </c>
+      <c r="F13" s="1">
+        <f>(F9+F10+F11)/3</f>
+        <v>0.54251689522775259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBC8D9-985C-4E83-B8DB-DC1DE8B5DFFC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1557</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2611</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2821</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.23810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +5549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2234,20 +5559,20 @@
       <c r="C8" s="1">
         <v>81</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>B8/(B8+C8)</f>
         <v>0.90252707581227432</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>B8/A2</f>
         <v>0.48169556840077071</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>2*D8*E8/(D8+E8)</f>
         <v>0.62814070351758799</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2257,20 +5582,20 @@
       <c r="C9" s="1">
         <v>409</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>B9/(B9+C9)</f>
         <v>0.67201283079390539</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>B9/B2</f>
         <v>0.3209498276522405</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>2*D9*E9/(D9+E9)</f>
         <v>0.43442198030067386</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2280,48 +5605,48 @@
       <c r="C10" s="1">
         <v>385</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>B10/(B10+C10)</f>
         <v>0.72539229671897287</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>B10/C2</f>
         <v>0.36051045728465081</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f>2*D10*E10/(D10+E10)</f>
         <v>0.48164811745204833</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>(B8+B9+B10)/(B8+B9+B10+C8+C9+C10)</f>
         <v>0.74856321839080464</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.74856321839080464</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.74856321839080464</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>(D8+D9+D10)/3</f>
         <v>0.76664406777505079</v>
       </c>
-      <c r="E12">
-        <f t="shared" ref="E12:F12" si="0">(E8+E9+E10)/3</f>
+      <c r="E12" s="1">
+        <f>(E8+E9+E10)/3</f>
         <v>0.38771861777922068</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F12" s="1">
+        <f>(F8+F9+F10)/3</f>
         <v>0.5147369337567701</v>
       </c>
     </row>

--- a/comment_Analysis/github_analysis.xlsx
+++ b/comment_Analysis/github_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\issuecomments_analysis\comment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FDF19-E582-42AD-8231-421DB0A655E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721A571-AD56-4917-BC63-2137AF423893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1515" windowWidth="18870" windowHeight="17370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="0" windowWidth="28320" windowHeight="21000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>Positive</t>
   </si>
@@ -93,12 +93,15 @@
   <si>
     <t>mismatch</t>
   </si>
+  <si>
+    <t>Cohen Kappa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +115,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,9 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4852,9 +4861,9 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -4884,15 +4893,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CD297-8E43-4141-90A2-FB97FFE10A3B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1620</v>
       </c>
@@ -4944,12 +4953,12 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4969,12 +4978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5007,7 @@
         <v>0.53344343517753923</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>0.51067615658362986</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>0.45201362452414345</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>0.50288500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5078,26 +5087,35 @@
         <v>0.49871107209510424</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.25104215284557002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E200D2-0165-4097-AF74-0C45E108232F}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1884</v>
       </c>
@@ -5146,7 +5164,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5166,7 +5184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5174,7 +5192,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5216,7 @@
         <v>0.61585835257890686</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5222,7 +5240,7 @@
         <v>0.64170040485829971</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>0.535232106528574</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5263,7 +5281,7 @@
         <v>0.74856321839080464</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5280,6 +5298,14 @@
       <c r="F12" s="1">
         <f>(F8+F9+F10)/3</f>
         <v>0.5975969546552603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.39044431162270099</v>
       </c>
     </row>
   </sheetData>
@@ -5290,15 +5316,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A47B7-3617-43FA-A90D-53A5A14DB27E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2175</v>
       </c>
@@ -5344,7 +5370,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5364,7 +5390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5372,7 +5398,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5396,7 +5422,7 @@
         <v>0.59933142311365806</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +5446,7 @@
         <v>0.61995911540605841</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5470,7 @@
         <v>0.40826014716354142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5461,7 +5487,7 @@
         <v>0.56801800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5478,6 +5504,14 @@
       <c r="F13" s="1">
         <f>(F9+F10+F11)/3</f>
         <v>0.54251689522775259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.33702742259915602</v>
       </c>
     </row>
   </sheetData>
@@ -5494,12 +5528,12 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5510,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1557</v>
       </c>
@@ -5521,7 +5555,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5563,7 @@
         <v>0.23810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5549,7 +5583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5572,7 +5606,7 @@
         <v>0.62814070351758799</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5595,7 +5629,7 @@
         <v>0.43442198030067386</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5652,7 @@
         <v>0.48164811745204833</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5633,7 +5667,7 @@
         <v>0.74856321839080464</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>

--- a/comment_Analysis/github_analysis.xlsx
+++ b/comment_Analysis/github_analysis.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\issuecomments_analysis\comment_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloehebert/Documents/csc400/issuecomments_analysis/comment_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721A571-AD56-4917-BC63-2137AF423893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="0" windowWidth="28320" windowHeight="21000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12260" yWindow="620" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -19,16 +18,16 @@
     <sheet name="IBM" sheetId="5" r:id="rId4"/>
     <sheet name="AWS" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -100,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,7 +149,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -282,18 +281,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2087</c:v>
+                  <c:v>2087.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3022</c:v>
+                  <c:v>3022.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BAE-4AC7-A279-B296D9CD0B17}"/>
             </c:ext>
@@ -309,11 +308,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2112898480"/>
-        <c:axId val="-2125411488"/>
+        <c:axId val="-2089032608"/>
+        <c:axId val="-2089135472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112898480"/>
+        <c:axId val="-2089032608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125411488"/>
+        <c:crossAx val="-2089135472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125411488"/>
+        <c:axId val="-2089135472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112898480"/>
+        <c:crossAx val="-2089032608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -465,7 +464,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -577,18 +576,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1620</c:v>
+                  <c:v>1620.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3533</c:v>
+                  <c:v>3533.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0212-401D-BB27-14663C7F8E79}"/>
             </c:ext>
@@ -604,11 +603,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="320172303"/>
-        <c:axId val="324508735"/>
+        <c:axId val="-2091649904"/>
+        <c:axId val="-2091519376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320172303"/>
+        <c:axId val="-2091649904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324508735"/>
+        <c:crossAx val="-2091519376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -659,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324508735"/>
+        <c:axId val="-2091519376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320172303"/>
+        <c:crossAx val="-2091649904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,14 +723,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -767,7 +766,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -884,18 +883,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1884</c:v>
+                  <c:v>1884.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2385</c:v>
+                  <c:v>2385.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2853</c:v>
+                  <c:v>2853.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3525-435D-A7ED-1AC6C5EE8972}"/>
             </c:ext>
@@ -911,11 +910,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="591185807"/>
-        <c:axId val="327137823"/>
+        <c:axId val="-2089086496"/>
+        <c:axId val="-2090916704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="591185807"/>
+        <c:axId val="-2089086496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327137823"/>
+        <c:crossAx val="-2090916704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327137823"/>
+        <c:axId val="-2090916704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591185807"/>
+        <c:crossAx val="-2089086496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1031,14 +1030,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1074,7 +1073,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1113,6 +1112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1186,18 +1186,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2175</c:v>
+                  <c:v>2175.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1191</c:v>
+                  <c:v>1191.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3294</c:v>
+                  <c:v>3294.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF17-4902-B79E-5E5B8DFCB36A}"/>
             </c:ext>
@@ -1213,11 +1213,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="418417279"/>
-        <c:axId val="688932991"/>
+        <c:axId val="-2089300496"/>
+        <c:axId val="-2090388480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="418417279"/>
+        <c:axId val="-2089300496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688932991"/>
+        <c:crossAx val="-2090388480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1268,7 +1268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688932991"/>
+        <c:axId val="-2090388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418417279"/>
+        <c:crossAx val="-2089300496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1333,14 +1333,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1415,6 +1415,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1488,18 +1489,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1557</c:v>
+                  <c:v>1557.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2611</c:v>
+                  <c:v>2611.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2821</c:v>
+                  <c:v>2954.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3BAC-42C8-8E1B-7D172D3AEBF9}"/>
             </c:ext>
@@ -1515,11 +1516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2060768816"/>
-        <c:axId val="-2124495200"/>
+        <c:axId val="-2089425920"/>
+        <c:axId val="-2089564032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060768816"/>
+        <c:axId val="-2089425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124495200"/>
+        <c:crossAx val="-2089564032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124495200"/>
+        <c:axId val="-2089564032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060768816"/>
+        <c:crossAx val="-2089425920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4405,7 +4406,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,7 +4447,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87581C58-E0DA-412B-99D5-32FB7EE92714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87581C58-E0DA-412B-99D5-32FB7EE92714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4488,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE751B71-626E-400F-8511-480EB9AC9405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE751B71-626E-400F-8511-480EB9AC9405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,7 +4529,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B23FE7D-F5B2-4327-A2CE-D83EAFB0E493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B23FE7D-F5B2-4327-A2CE-D83EAFB0E493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4569,7 +4570,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331DD62B-BB65-4BFB-974E-B72C87E7B7A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{331DD62B-BB65-4BFB-974E-B72C87E7B7A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,16 +4855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -4892,16 +4893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CD297-8E43-4141-90A2-FB97FFE10A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1620</v>
       </c>
@@ -4953,12 +4954,12 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4978,12 +4979,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>0.53344343517753923</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>0.51067615658362986</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>0.45201362452414345</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>0.50288500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>0.49871107209510424</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5103,19 +5104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E200D2-0165-4097-AF74-0C45E108232F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1884</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5192,7 +5193,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>0.61585835257890686</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0.64170040485829971</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>0.535232106528574</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>0.74856321839080464</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>0.5975969546552603</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5315,16 +5316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A47B7-3617-43FA-A90D-53A5A14DB27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2175</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5398,7 +5399,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>0.59933142311365806</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>0.61995911540605841</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>0.40826014716354142</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>0.56801800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>0.54251689522775259</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5521,19 +5522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBC8D9-985C-4E83-B8DB-DC1DE8B5DFFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1557</v>
       </c>
@@ -5552,18 +5553,18 @@
         <v>2611</v>
       </c>
       <c r="C2" s="1">
-        <v>2821</v>
+        <v>2954</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.23810000000000001</v>
+        <v>0.56279999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5583,82 +5584,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>750</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="1">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1">
         <f>B8/(B8+C8)</f>
-        <v>0.90252707581227432</v>
+        <v>0.87861271676300579</v>
       </c>
       <c r="E8" s="1">
         <f>B8/A2</f>
-        <v>0.48169556840077071</v>
+        <v>0.87861271676300579</v>
       </c>
       <c r="F8" s="1">
         <f>2*D8*E8/(D8+E8)</f>
-        <v>0.62814070351758799</v>
+        <v>0.87861271676300579</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>838</v>
+        <v>1642</v>
       </c>
       <c r="C9" s="1">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="D9" s="1">
         <f>B9/(B9+C9)</f>
-        <v>0.67201283079390539</v>
+        <v>0.62887782458828034</v>
       </c>
       <c r="E9" s="1">
         <f>B9/B2</f>
-        <v>0.3209498276522405</v>
+        <v>0.62887782458828034</v>
       </c>
       <c r="F9" s="1">
         <f>2*D9*E9/(D9+E9)</f>
-        <v>0.43442198030067386</v>
+        <v>0.62887782458828034</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>1017</v>
+        <v>2073</v>
       </c>
       <c r="C10" s="1">
-        <v>385</v>
+        <v>881</v>
       </c>
       <c r="D10" s="1">
         <f>B10/(B10+C10)</f>
-        <v>0.72539229671897287</v>
+        <v>0.70176032498307384</v>
       </c>
       <c r="E10" s="1">
         <f>B10/C2</f>
-        <v>0.36051045728465081</v>
+        <v>0.70176032498307384</v>
       </c>
       <c r="F10" s="1">
         <f>2*D10*E10/(D10+E10)</f>
-        <v>0.48164811745204833</v>
+        <v>0.70176032498307384</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1">
         <f>(B8+B9+B10)/(B8+B9+B10+C8+C9+C10)</f>
-        <v>0.74856321839080464</v>
+        <v>0.71370401572591968</v>
       </c>
       <c r="E11" s="1">
         <v>0.74856321839080464</v>
@@ -5667,21 +5668,21 @@
         <v>0.74856321839080464</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1">
         <f>(D8+D9+D10)/3</f>
-        <v>0.76664406777505079</v>
+        <v>0.73641695544478669</v>
       </c>
       <c r="E12" s="1">
         <f>(E8+E9+E10)/3</f>
-        <v>0.38771861777922068</v>
+        <v>0.73641695544478669</v>
       </c>
       <c r="F12" s="1">
         <f>(F8+F9+F10)/3</f>
-        <v>0.5147369337567701</v>
+        <v>0.73641695544478669</v>
       </c>
     </row>
   </sheetData>

--- a/comment_Analysis/github_analysis.xlsx
+++ b/comment_Analysis/github_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="620" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6940" yWindow="2260" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Positive</t>
   </si>
@@ -208,6 +208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -503,6 +504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -810,6 +812,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5108,7 +5111,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="K1" sqref="K1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5320,7 +5323,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5523,10 +5526,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5534,7 +5537,7 @@
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5544,8 +5547,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1557</v>
       </c>
@@ -5555,8 +5570,18 @@
       <c r="C2" s="1">
         <v>2954</v>
       </c>
+      <c r="G2"/>
+      <c r="H2">
+        <v>2013</v>
+      </c>
+      <c r="I2">
+        <v>2087</v>
+      </c>
+      <c r="J2">
+        <v>3022</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5564,7 +5589,7 @@
         <v>0.56279999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5584,7 +5609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5599,15 +5624,15 @@
         <v>0.87861271676300579</v>
       </c>
       <c r="E8" s="1">
-        <f>B8/A2</f>
-        <v>0.87861271676300579</v>
+        <f>B8/H2</f>
+        <v>0.67958271236959766</v>
       </c>
       <c r="F8" s="1">
         <f>2*D8*E8/(D8+E8)</f>
-        <v>0.87861271676300579</v>
+        <v>0.76638655462184879</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5622,15 +5647,15 @@
         <v>0.62887782458828034</v>
       </c>
       <c r="E9" s="1">
-        <f>B9/B2</f>
-        <v>0.62887782458828034</v>
+        <f>B9/I2</f>
+        <v>0.78677527551509341</v>
       </c>
       <c r="F9" s="1">
         <f>2*D9*E9/(D9+E9)</f>
-        <v>0.62887782458828034</v>
+        <v>0.69902085994040009</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5645,15 +5670,15 @@
         <v>0.70176032498307384</v>
       </c>
       <c r="E10" s="1">
-        <f>B10/C2</f>
-        <v>0.70176032498307384</v>
+        <f>B10/J2</f>
+        <v>0.68596955658504299</v>
       </c>
       <c r="F10" s="1">
         <f>2*D10*E10/(D10+E10)</f>
-        <v>0.70176032498307384</v>
+        <v>0.69377510040160639</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5662,13 +5687,13 @@
         <v>0.71370401572591968</v>
       </c>
       <c r="E11" s="1">
-        <v>0.74856321839080464</v>
+        <v>0.71370401572591968</v>
       </c>
       <c r="F11" s="1">
-        <v>0.74856321839080464</v>
+        <v>0.71370401572591968</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5678,11 +5703,11 @@
       </c>
       <c r="E12" s="1">
         <f>(E8+E9+E10)/3</f>
-        <v>0.73641695544478669</v>
+        <v>0.71744251482324461</v>
       </c>
       <c r="F12" s="1">
         <f>(F8+F9+F10)/3</f>
-        <v>0.73641695544478669</v>
+        <v>0.71972750498795168</v>
       </c>
     </row>
   </sheetData>
